--- a/webDirectories.xlsx
+++ b/webDirectories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Scrubtheweb.com </t>
   </si>
@@ -82,12 +82,15 @@
   </si>
   <si>
     <t>http://www.eyewebmaster.com/blog/seo/reputations/free-top-10-philippines-online-directory-general-business/</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com/ realbreeze - realbreeze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,6 +183,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -227,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +266,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,7 +514,7 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +523,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,6 +627,12 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -606,9 +652,10 @@
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2"/>
     <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/webDirectories.xlsx
+++ b/webDirectories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Scrubtheweb.com </t>
   </si>
@@ -81,10 +81,58 @@
     <t>http://philippinesdirectory.net</t>
   </si>
   <si>
-    <t>http://www.eyewebmaster.com/blog/seo/reputations/free-top-10-philippines-online-directory-general-business/</t>
-  </si>
-  <si>
-    <t>realbreezemark@gmail.com/ realbreeze - realbreeze</t>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>free submission is disabled</t>
+  </si>
+  <si>
+    <t>empty page</t>
+  </si>
+  <si>
+    <t>no submission</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com /realbreeze - realbreeze</t>
+  </si>
+  <si>
+    <t>jahdielsvillosa@gmail.com / jahdiel</t>
+  </si>
+  <si>
+    <t>http://businessdirectory.ph/</t>
+  </si>
+  <si>
+    <t>http://www.businesslist.ph</t>
+  </si>
+  <si>
+    <t>http://www.jblisting.com/</t>
+  </si>
+  <si>
+    <t>http://yalwa.ph</t>
+  </si>
+  <si>
+    <t>http://pinoypages.ph</t>
+  </si>
+  <si>
+    <t>http://pinoylisting.com</t>
+  </si>
+  <si>
+    <t>http://philippinecompanies.com</t>
+  </si>
+  <si>
+    <t>http://truelocal.com.ph</t>
+  </si>
+  <si>
+    <t>http://philippinescities.com</t>
+  </si>
+  <si>
+    <t>http://mastermoz.com</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com /realbreezedavao - realbreeze</t>
+  </si>
+  <si>
+    <t>http://www.quickdirectory.biz</t>
   </si>
 </sst>
 </file>
@@ -143,12 +191,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +226,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,136 +582,237 @@
     <col min="5" max="5" width="53.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A14" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E25" r:id="rId10"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A16" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
